--- a/НИР/Книга1.xlsx
+++ b/НИР/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Фиксированные партии</t>
+  </si>
+  <si>
+    <t>n=5</t>
+  </si>
+  <si>
+    <t>l=10</t>
   </si>
 </sst>
 </file>
@@ -58,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,12 +72,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -412,354 +508,824 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>142</v>
       </c>
-      <c r="H5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>150</v>
       </c>
-      <c r="H6">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>174</v>
       </c>
-      <c r="H7">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>222</v>
       </c>
-      <c r="H8">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="D9">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>318</v>
       </c>
-      <c r="H9">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6">
         <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>236</v>
       </c>
-      <c r="H10">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>246</v>
       </c>
-      <c r="H11">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6">
         <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
         <v>270</v>
       </c>
-      <c r="H12">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6">
         <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>318</v>
       </c>
-      <c r="H13">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6">
         <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="D14">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>414</v>
       </c>
-      <c r="H14">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6">
         <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>434</v>
       </c>
-      <c r="H15">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <v>450</v>
       </c>
-      <c r="H16">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
         <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>462</v>
       </c>
-      <c r="H17">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6">
         <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18">
+      <c r="A18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
         <v>510</v>
       </c>
-      <c r="H18">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
         <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="D19">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>606</v>
       </c>
-      <c r="H19">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6">
         <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
         <v>818</v>
       </c>
-      <c r="H20">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
         <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21">
+      <c r="A21" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>834</v>
       </c>
-      <c r="H21">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
         <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="D22">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
         <v>870</v>
       </c>
-      <c r="H22">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6">
         <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="D23">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
         <v>894</v>
       </c>
-      <c r="H23">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6">
         <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="D24">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5">
         <v>990</v>
       </c>
-      <c r="H24">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6">
         <v>994</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="A25" s="4">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
         <v>1686</v>
       </c>
-      <c r="H25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
         <v>1596</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
         <v>1602</v>
       </c>
-      <c r="H26">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
         <v>1622</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="D27">
+      <c r="A27" s="4">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
         <v>1638</v>
       </c>
-      <c r="H27">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6">
         <v>1672</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="D28">
+      <c r="A28" s="4">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
         <v>1710</v>
       </c>
-      <c r="H28">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
         <v>1712</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-      <c r="D29">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>1758</v>
       </c>
-      <c r="H29">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9">
         <v>1792</v>
       </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>152</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10">
+        <v>160</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10">
+        <v>184</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>16</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="5">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>8</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>8</v>
+      </c>
+      <c r="B50" s="5">
+        <v>8</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5">
+        <v>16</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>16</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>16</v>
+      </c>
+      <c r="B55" s="5">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>16</v>
+      </c>
+      <c r="B56" s="8">
+        <v>16</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/НИР/Книга1.xlsx
+++ b/НИР/Книга1.xlsx
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,11 +1027,15 @@
         <v>8</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="10">
+        <v>232</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6">
+        <v>248</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1041,11 +1045,15 @@
         <v>16</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="10">
+        <v>328</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6">
+        <v>360</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
